--- a/Data/EC/NIT-8060150300.xlsx
+++ b/Data/EC/NIT-8060150300.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EDADC47-6D75-4C0A-BD09-0054837F1DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{099D7808-1EB3-493D-9C80-79EDDA5E063C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C9F26970-9F19-498C-8A4F-D4E43DD8FB47}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4B5710FC-CCE3-4DA1-A7D2-BAFA2A578F61}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,82 +65,82 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1128060391</t>
+  </si>
+  <si>
+    <t>CELMIRA JADID CAÑA PATERNINA</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>1050956592</t>
+  </si>
+  <si>
+    <t>LILIANA MARGARITA ROCHA PEREZ</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>1047403892</t>
+  </si>
+  <si>
+    <t>CINDY PAOLA FERRER ROCHA</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>1143413364</t>
+  </si>
+  <si>
+    <t>NATHALIA ANDREA CARVAJAL SILVERA</t>
+  </si>
+  <si>
+    <t>1002192416</t>
+  </si>
+  <si>
+    <t>KARELIS PATRICIA HERNANDEZ HERRERA</t>
+  </si>
+  <si>
     <t>1143397708</t>
   </si>
   <si>
     <t>JONN JAIRO PAJARO CARO</t>
   </si>
   <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>1002192416</t>
-  </si>
-  <si>
-    <t>KARELIS PATRICIA HERNANDEZ HERRERA</t>
-  </si>
-  <si>
-    <t>1143413364</t>
-  </si>
-  <si>
-    <t>NATHALIA ANDREA CARVAJAL SILVERA</t>
-  </si>
-  <si>
-    <t>1047403892</t>
-  </si>
-  <si>
-    <t>CINDY PAOLA FERRER ROCHA</t>
-  </si>
-  <si>
     <t>1044932932</t>
   </si>
   <si>
     <t>JUAN CAMILO LOZANO MARIMON</t>
-  </si>
-  <si>
-    <t>1050956592</t>
-  </si>
-  <si>
-    <t>LILIANA MARGARITA ROCHA PEREZ</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>1128060391</t>
-  </si>
-  <si>
-    <t>CELMIRA JADID CAÑA PATERNINA</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -554,7 +554,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DF1F817-A943-FEA7-D2EF-D3968381E1BC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14915381-6183-11EA-52B6-9D72512B2A16}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -905,7 +905,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FCB7913-9197-47E7-8F3D-76DB23B235DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD99E34-FD85-4E9C-A05F-5B1E466F6E06}">
   <dimension ref="B2:J92"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1083,7 +1083,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>36341</v>
+        <v>27861</v>
       </c>
       <c r="G16" s="18">
         <v>908526</v>
@@ -1097,13 +1097,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>36341</v>
@@ -1120,13 +1120,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F18" s="18">
         <v>36341</v>
@@ -1143,13 +1143,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
         <v>36341</v>
@@ -1166,13 +1166,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
         <v>36341</v>
@@ -1189,16 +1189,16 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>10902</v>
+        <v>36341</v>
       </c>
       <c r="G21" s="18">
         <v>908526</v>
@@ -1212,13 +1212,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
         <v>36341</v>
@@ -1235,16 +1235,16 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F23" s="18">
-        <v>36341</v>
+        <v>27861</v>
       </c>
       <c r="G23" s="18">
         <v>908526</v>
@@ -1264,7 +1264,7 @@
         <v>19</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F24" s="18">
         <v>36341</v>
@@ -1281,13 +1281,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F25" s="18">
         <v>36341</v>
@@ -1304,13 +1304,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F26" s="18">
         <v>36341</v>
@@ -1327,13 +1327,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D27" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="16" t="s">
         <v>15</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="F27" s="18">
         <v>36341</v>
@@ -1350,13 +1350,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="F28" s="18">
         <v>36341</v>
@@ -1379,7 +1379,7 @@
         <v>19</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F29" s="18">
         <v>36341</v>
@@ -1396,13 +1396,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F30" s="18">
         <v>36341</v>
@@ -1419,13 +1419,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F31" s="18">
         <v>36341</v>
@@ -1442,13 +1442,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F32" s="18">
         <v>36341</v>
@@ -1471,10 +1471,10 @@
         <v>19</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F33" s="18">
-        <v>36341</v>
+        <v>10902</v>
       </c>
       <c r="G33" s="18">
         <v>908526</v>
@@ -1488,13 +1488,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" s="16" t="s">
         <v>14</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>24</v>
       </c>
       <c r="F34" s="18">
         <v>36341</v>
@@ -1511,13 +1511,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F35" s="18">
         <v>36341</v>
@@ -1534,13 +1534,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F36" s="18">
         <v>36341</v>
@@ -1557,13 +1557,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F37" s="18">
         <v>36341</v>
@@ -1580,13 +1580,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F38" s="18">
         <v>36341</v>
@@ -1603,16 +1603,16 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F39" s="18">
-        <v>36341</v>
+        <v>27861</v>
       </c>
       <c r="G39" s="18">
         <v>908526</v>
@@ -1626,13 +1626,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F40" s="18">
         <v>36341</v>
@@ -1649,13 +1649,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F41" s="18">
         <v>36341</v>
@@ -1672,13 +1672,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F42" s="18">
         <v>36341</v>
@@ -1695,13 +1695,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F43" s="18">
         <v>36341</v>
@@ -1718,13 +1718,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F44" s="18">
         <v>36341</v>
@@ -1741,13 +1741,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F45" s="18">
         <v>36341</v>
@@ -1764,13 +1764,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E46" s="16" t="s">
         <v>20</v>
-      </c>
-      <c r="D46" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E46" s="16" t="s">
-        <v>26</v>
       </c>
       <c r="F46" s="18">
         <v>36341</v>
@@ -1787,13 +1787,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F47" s="18">
         <v>36341</v>
@@ -1816,7 +1816,7 @@
         <v>28</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F48" s="18">
         <v>36341</v>
@@ -1833,13 +1833,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F49" s="18">
         <v>36341</v>
@@ -1856,13 +1856,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F50" s="18">
         <v>36341</v>
@@ -1879,16 +1879,16 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="F51" s="18">
-        <v>36341</v>
+        <v>27861</v>
       </c>
       <c r="G51" s="18">
         <v>908526</v>
@@ -1902,13 +1902,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="F52" s="18">
         <v>36341</v>
@@ -1925,13 +1925,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="F53" s="18">
         <v>36341</v>
@@ -1948,13 +1948,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="F54" s="18">
         <v>36341</v>
@@ -1971,13 +1971,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D55" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E55" s="16" t="s">
         <v>15</v>
-      </c>
-      <c r="E55" s="16" t="s">
-        <v>30</v>
       </c>
       <c r="F55" s="18">
         <v>36341</v>
@@ -1994,13 +1994,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E56" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="D56" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E56" s="16" t="s">
-        <v>30</v>
       </c>
       <c r="F56" s="18">
         <v>36341</v>
@@ -2017,13 +2017,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F57" s="18">
         <v>36341</v>
@@ -2040,13 +2040,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F58" s="18">
         <v>36341</v>
@@ -2063,13 +2063,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F59" s="18">
         <v>36341</v>
@@ -2086,13 +2086,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F60" s="18">
         <v>36341</v>
@@ -2109,13 +2109,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F61" s="18">
         <v>36341</v>
@@ -2132,13 +2132,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F62" s="18">
         <v>36341</v>
@@ -2155,16 +2155,16 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="F63" s="18">
-        <v>36341</v>
+        <v>27861</v>
       </c>
       <c r="G63" s="18">
         <v>908526</v>
@@ -2178,13 +2178,13 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="F64" s="18">
         <v>36341</v>
@@ -2201,13 +2201,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="F65" s="18">
         <v>36341</v>
@@ -2224,13 +2224,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="F66" s="18">
         <v>36341</v>
@@ -2247,13 +2247,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="F67" s="18">
         <v>36341</v>
@@ -2270,13 +2270,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="F68" s="18">
         <v>36341</v>
@@ -2293,13 +2293,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F69" s="18">
         <v>36341</v>
@@ -2316,13 +2316,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F70" s="18">
         <v>36341</v>
@@ -2339,13 +2339,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F71" s="18">
         <v>36341</v>
@@ -2362,13 +2362,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="F72" s="18">
         <v>36341</v>
@@ -2385,13 +2385,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F73" s="18">
         <v>36341</v>
@@ -2408,13 +2408,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F74" s="18">
         <v>36341</v>
@@ -2431,16 +2431,16 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="F75" s="18">
-        <v>36341</v>
+        <v>27861</v>
       </c>
       <c r="G75" s="18">
         <v>908526</v>
@@ -2454,13 +2454,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F76" s="18">
         <v>36341</v>
@@ -2477,13 +2477,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F77" s="18">
         <v>36341</v>
@@ -2500,13 +2500,13 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F78" s="18">
         <v>36341</v>
@@ -2523,13 +2523,13 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D79" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E79" s="16" t="s">
         <v>15</v>
-      </c>
-      <c r="E79" s="16" t="s">
-        <v>33</v>
       </c>
       <c r="F79" s="18">
         <v>36341</v>
@@ -2546,13 +2546,13 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="F80" s="18">
         <v>36341</v>
@@ -2569,16 +2569,16 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="F81" s="18">
-        <v>27861</v>
+        <v>36341</v>
       </c>
       <c r="G81" s="18">
         <v>908526</v>
@@ -2592,16 +2592,16 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D82" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E82" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D82" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E82" s="16" t="s">
-        <v>34</v>
-      </c>
       <c r="F82" s="18">
-        <v>27861</v>
+        <v>36341</v>
       </c>
       <c r="G82" s="18">
         <v>908526</v>
@@ -2615,16 +2615,16 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F83" s="18">
-        <v>27861</v>
+        <v>36341</v>
       </c>
       <c r="G83" s="18">
         <v>908526</v>
@@ -2638,16 +2638,16 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="F84" s="18">
-        <v>27861</v>
+        <v>36341</v>
       </c>
       <c r="G84" s="18">
         <v>908526</v>
@@ -2661,16 +2661,16 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F85" s="18">
-        <v>27861</v>
+        <v>36341</v>
       </c>
       <c r="G85" s="18">
         <v>908526</v>
@@ -2684,16 +2684,16 @@
         <v>8</v>
       </c>
       <c r="C86" s="22" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D86" s="23" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="E86" s="22" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F86" s="24">
-        <v>27861</v>
+        <v>36341</v>
       </c>
       <c r="G86" s="24">
         <v>908526</v>
